--- a/splitwise_data.xlsx
+++ b/splitwise_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roshan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roshan\Desktop\splitwise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81A64C2-B679-44A6-974A-81C730FFF332}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50A6E42-5F2B-4CF6-821C-9F78E2836F44}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F6F6853A-0C56-4D23-88F1-58838895397B}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -169,6 +168,21 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Trip</t>
+  </si>
+  <si>
+    <t>Apartment</t>
+  </si>
+  <si>
+    <t>Grocery</t>
   </si>
 </sst>
 </file>
@@ -526,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76541A17-2031-4738-90D4-4192AEF08924}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,25 +554,32 @@
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -574,35 +595,44 @@
       <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>0</v>
+      <c r="H2" t="s">
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
       </c>
       <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>9</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -618,14 +648,14 @@
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="1">
-        <v>4</v>
+      <c r="K3" t="s">
+        <v>48</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -633,20 +663,29 @@
       <c r="N3" s="1">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
         <v>36</v>
       </c>
-      <c r="P3" t="s">
+      <c r="T3" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -662,14 +701,14 @@
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1">
+      <c r="H4" s="1">
         <v>2</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
       </c>
       <c r="M4" s="1">
         <v>2</v>
@@ -677,153 +716,168 @@
       <c r="N4" s="1">
         <v>1</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" t="s">
+      <c r="T4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1">
-        <v>3</v>
-      </c>
       <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
       </c>
       <c r="M5" s="1">
         <v>3</v>
       </c>
       <c r="N5" s="1">
-        <v>4</v>
-      </c>
-      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s">
         <v>42</v>
       </c>
-      <c r="P5" t="s">
+      <c r="T5" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="U5" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="1">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>5</v>
-      </c>
       <c r="M6" s="1">
         <v>4</v>
       </c>
       <c r="N6" s="1">
-        <v>5</v>
-      </c>
-      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s">
         <v>43</v>
       </c>
-      <c r="P6" t="s">
+      <c r="T6" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="U6" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="1">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>3</v>
-      </c>
       <c r="M7" s="1">
         <v>5</v>
       </c>
       <c r="N7" s="1">
-        <v>5</v>
-      </c>
-      <c r="O7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>5</v>
+      </c>
+      <c r="R7" s="1">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="1">
+      <c r="T7" s="1">
         <v>1500</v>
       </c>
-      <c r="Q7" s="1">
-        <v>2</v>
-      </c>
-      <c r="R7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I8" s="1">
+      <c r="U7" s="1">
+        <v>2</v>
+      </c>
+      <c r="V7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M8" s="1">
         <v>6</v>
       </c>
-      <c r="J8" s="1">
-        <v>2</v>
-      </c>
-      <c r="K8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N8" s="1">
+        <v>2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>32</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>31</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -848,27 +902,27 @@
       <c r="I13" t="s">
         <v>29</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>0</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>33</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="1">
@@ -883,27 +937,27 @@
       <c r="I14" s="1">
         <v>100</v>
       </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
-        <v>2</v>
-      </c>
       <c r="M14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="1">
@@ -918,52 +972,52 @@
       <c r="I15" s="1">
         <v>500</v>
       </c>
-      <c r="K15" s="1">
-        <v>2</v>
-      </c>
-      <c r="L15" s="1">
-        <v>3</v>
-      </c>
       <c r="M15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>3</v>
+      </c>
+      <c r="O15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
         <v>4</v>
       </c>
       <c r="D18" s="1">
@@ -971,13 +1025,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>6</v>
       </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" s="1">
@@ -985,13 +1039,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>7</v>
       </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
         <v>5</v>
       </c>
       <c r="D20" s="1">
@@ -999,13 +1053,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>8</v>
       </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
         <v>5</v>
       </c>
       <c r="D21" s="1">
@@ -1013,13 +1067,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>9</v>
       </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="1">
@@ -1027,13 +1081,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>10</v>
       </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="D23" s="1">
@@ -1041,13 +1095,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>11</v>
       </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="1">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
         <v>5</v>
       </c>
       <c r="D24" s="1">
@@ -1055,13 +1109,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>12</v>
       </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1">

--- a/splitwise_data.xlsx
+++ b/splitwise_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roshan\Desktop\splitwise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50A6E42-5F2B-4CF6-821C-9F78E2836F44}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D9787F-2921-4F0B-BA45-3B96B2A3F18E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F6F6853A-0C56-4D23-88F1-58838895397B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" xr2:uid="{F6F6853A-0C56-4D23-88F1-58838895397B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -125,12 +125,6 @@
     <t xml:space="preserve">               </t>
   </si>
   <si>
-    <t xml:space="preserve">                          Friend                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">             Friend                       </t>
-  </si>
-  <si>
     <t>Friend_Id</t>
   </si>
   <si>
@@ -183,6 +177,39 @@
   </si>
   <si>
     <t>Grocery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Friend                       </t>
+  </si>
+  <si>
+    <t>FriendExpense</t>
+  </si>
+  <si>
+    <t>FriendId</t>
+  </si>
+  <si>
+    <t>FriendExpId</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>paidby</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>wss</t>
+  </si>
+  <si>
+    <t>unequally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        FriendBill</t>
   </si>
 </sst>
 </file>
@@ -540,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76541A17-2031-4738-90D4-4192AEF08924}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,12 +581,12 @@
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="18" max="19" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -570,7 +597,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M1" t="s">
         <v>16</v>
@@ -590,13 +617,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -655,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1">
         <v>1</v>
@@ -673,10 +700,10 @@
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U3" s="1">
         <v>1</v>
@@ -708,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M4" s="1">
         <v>2</v>
@@ -726,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U4" s="1">
         <v>1</v>
@@ -749,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M5" s="1">
         <v>3</v>
@@ -767,13 +794,13 @@
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V5" s="1">
         <v>4</v>
@@ -802,13 +829,13 @@
         <v>5</v>
       </c>
       <c r="S6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" t="s">
         <v>43</v>
-      </c>
-      <c r="T6" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" t="s">
-        <v>45</v>
       </c>
       <c r="V6" s="1">
         <v>5</v>
@@ -837,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T7" s="1">
         <v>1500</v>
@@ -867,14 +894,14 @@
       <c r="F12" t="s">
         <v>26</v>
       </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
       <c r="N12" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="O12" t="s">
         <v>30</v>
+      </c>
+      <c r="S12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -902,14 +929,38 @@
       <c r="I13" t="s">
         <v>29</v>
       </c>
+      <c r="J13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>55</v>
+      </c>
       <c r="M13" t="s">
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" t="s">
+        <v>53</v>
+      </c>
+      <c r="U13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -923,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -937,6 +988,9 @@
       <c r="I14" s="1">
         <v>100</v>
       </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
@@ -944,6 +998,24 @@
         <v>2</v>
       </c>
       <c r="O14" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1234</v>
+      </c>
+      <c r="S14" t="s">
+        <v>57</v>
+      </c>
+      <c r="T14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V14">
         <v>5</v>
       </c>
     </row>
@@ -958,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
@@ -972,6 +1044,9 @@
       <c r="I15" s="1">
         <v>500</v>
       </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
       <c r="M15" s="1">
         <v>2</v>
       </c>
@@ -993,10 +1068,13 @@
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -1007,10 +1085,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -1024,7 +1102,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -1038,7 +1116,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>7</v>
       </c>
@@ -1052,7 +1130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>8</v>
       </c>
@@ -1066,7 +1144,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>9</v>
       </c>
@@ -1079,8 +1157,13 @@
       <c r="D22" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10</v>
       </c>
@@ -1093,8 +1176,20 @@
       <c r="D23" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>11</v>
       </c>
@@ -1107,8 +1202,22 @@
       <c r="D24" s="1">
         <v>750</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>2</v>
+      </c>
+      <c r="O24" s="1">
+        <v>250</v>
+      </c>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>12</v>
       </c>
@@ -1121,6 +1230,36 @@
       <c r="D25" s="1">
         <v>750</v>
       </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>3</v>
+      </c>
+      <c r="O25" s="1">
+        <v>250</v>
+      </c>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1">
+        <v>3</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>5</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1500</v>
+      </c>
+      <c r="P26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/splitwise_data.xlsx
+++ b/splitwise_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roshan\Desktop\splitwise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D9787F-2921-4F0B-BA45-3B96B2A3F18E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC64428C-E6FA-4663-B52A-4B0A05B46C0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" xr2:uid="{F6F6853A-0C56-4D23-88F1-58838895397B}"/>
   </bookViews>
@@ -570,7 +570,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +582,7 @@
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
     <col min="14" max="14" width="17.28515625" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" customWidth="1"/>

--- a/splitwise_data.xlsx
+++ b/splitwise_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roshan\Desktop\splitwise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC64428C-E6FA-4663-B52A-4B0A05B46C0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96B342A-A207-41E0-B97B-EC6D13DDBFC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" xr2:uid="{F6F6853A-0C56-4D23-88F1-58838895397B}"/>
+    <workbookView minimized="1" xWindow="2760" yWindow="1260" windowWidth="15375" windowHeight="7875" tabRatio="597" xr2:uid="{F6F6853A-0C56-4D23-88F1-58838895397B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,8 +1071,12 @@
         <v>39</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="N16" s="1">
+        <v>5</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1086,6 +1090,12 @@
       </c>
       <c r="D17" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="N17" s="1">
+        <v>5</v>
+      </c>
+      <c r="O17" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
